--- a/branches/death_fig-59/ValueSet-vs-cd4-count.xlsx
+++ b/branches/death_fig-59/ValueSet-vs-cd4-count.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:36:33+00:00</t>
+    <t>2023-03-01T13:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/death_fig-59/ValueSet-vs-cd4-count.xlsx
+++ b/branches/death_fig-59/ValueSet-vs-cd4-count.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:38:18+00:00</t>
+    <t>2023-03-01T14:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/death_fig-59/ValueSet-vs-cd4-count.xlsx
+++ b/branches/death_fig-59/ValueSet-vs-cd4-count.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T14:59:44+00:00</t>
+    <t>2023-03-01T15:00:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/death_fig-59/ValueSet-vs-cd4-count.xlsx
+++ b/branches/death_fig-59/ValueSet-vs-cd4-count.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T15:00:07+00:00</t>
+    <t>2023-03-02T09:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/death_fig-59/ValueSet-vs-cd4-count.xlsx
+++ b/branches/death_fig-59/ValueSet-vs-cd4-count.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T09:49:00+00:00</t>
+    <t>2023-03-02T09:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
